--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -124,6 +124,76 @@
         </is>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>홍길순</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>1234567890123</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>7890123</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>010-0001-0001</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>02-0001-0001</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>w12OO_01@abc.com</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>55164</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>대전 타파하 CCC</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>사랑빌 8층 3</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>(구)신한은행</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>026</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>0251122912351</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>